--- a/biology/Zoologie/Abalistes_filamentosus/Abalistes_filamentosus.xlsx
+++ b/biology/Zoologie/Abalistes_filamentosus/Abalistes_filamentosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abalistes filamentosus est une espèce de poissons du genre Abalistes, appartenant à la famille des Balistidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut mesurer jusqu’à 32,5 cm et peser jusqu’à 1,4 kg[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut mesurer jusqu’à 32,5 cm et peser jusqu’à 1,4 kg.
 Abalistes filamentosus est caractérisé par des filaments de la nageoire caudale, absents chez l'espèce voisine Abalistes stellatus
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abalistes filamentosus vit dans l'océan Pacifique, précisément au large des îles Ryukyu, au nord-ouest de l'Australie et en mer de Timor[2]. Il a également été observé en Nouvelle-Calédonie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abalistes filamentosus vit dans l'océan Pacifique, précisément au large des îles Ryukyu, au nord-ouest de l'Australie et en mer de Timor. Il a également été observé en Nouvelle-Calédonie.
 </t>
         </is>
       </c>
